--- a/data/case1/5/cost_1.xlsx
+++ b/data/case1/5/cost_1.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>161.44393411495577</v>
+        <v>161.44215043151627</v>
       </c>
       <c r="B1" s="0">
-        <v>5.4409964786824023</v>
+        <v>4.8975648584012044</v>
       </c>
       <c r="C1" s="0">
-        <v>3.0495759947814745</v>
+        <v>4.028049575994781</v>
       </c>
     </row>
   </sheetData>
